--- a/Documents/gearboxAddonConfig.xlsx
+++ b/Documents/gearboxAddonConfig.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="0" windowWidth="27345" windowHeight="14820"/>
+    <workbookView xWindow="2910" yWindow="0" windowWidth="27345" windowHeight="14820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="114">
   <si>
     <t>Name</t>
   </si>
@@ -372,7 +372,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,20 +389,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -412,11 +405,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -434,26 +422,107 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -775,7 +844,7 @@
   <dimension ref="A1:M91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,7 +889,7 @@
       <c r="A2" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C2" t="s">
@@ -1105,6 +1174,9 @@
       <c r="B20" t="s">
         <v>25</v>
       </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1183,6 +1255,9 @@
       <c r="B26" t="s">
         <v>31</v>
       </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -1205,6 +1280,12 @@
       <c r="B28" t="s">
         <v>34</v>
       </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -1297,6 +1378,9 @@
       <c r="B35" t="s">
         <v>41</v>
       </c>
+      <c r="C35" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -1333,19 +1417,19 @@
       <c r="B38" t="s">
         <v>44</v>
       </c>
+      <c r="C38" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" t="s">
         <v>22</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1355,6 +1439,9 @@
       <c r="B40" t="s">
         <v>46</v>
       </c>
+      <c r="C40" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -1369,7 +1456,7 @@
       <c r="D41" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="1" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1380,6 +1467,12 @@
       <c r="B42" t="s">
         <v>47</v>
       </c>
+      <c r="C42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
       <c r="E42" t="s">
         <v>110</v>
       </c>
@@ -1397,7 +1490,7 @@
       <c r="D43" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="1" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1413,7 +1506,7 @@
       <c r="A45" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C45" t="s">
@@ -1480,7 +1573,7 @@
       <c r="A50" t="s">
         <v>62</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C50" t="s">
@@ -1614,7 +1707,7 @@
       <c r="A63" t="s">
         <v>75</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C63" t="s">
@@ -1664,7 +1757,7 @@
       <c r="D67" t="s">
         <v>4</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E67" s="1" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1672,7 +1765,7 @@
       <c r="A68" t="s">
         <v>80</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C68" t="s">
@@ -1683,7 +1776,7 @@
       <c r="A69" t="s">
         <v>81</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C69" t="s">
@@ -1694,7 +1787,7 @@
       <c r="A70" t="s">
         <v>85</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C70" t="s">
@@ -1713,7 +1806,7 @@
       <c r="A72" t="s">
         <v>55</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C72" t="s">
@@ -1748,8 +1841,11 @@
       <c r="A76" t="s">
         <v>52</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>91</v>
+      </c>
+      <c r="C76" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -1783,7 +1879,7 @@
       <c r="A80" t="s">
         <v>53</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C80" t="s">
@@ -1818,7 +1914,7 @@
       <c r="A84" t="s">
         <v>54</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C84" t="s">
@@ -1845,7 +1941,7 @@
       <c r="A87" t="s">
         <v>101</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C87" t="s">
@@ -1864,7 +1960,7 @@
       <c r="A89" t="s">
         <v>103</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C89" t="s">
@@ -1894,26 +1990,26 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C90:D91 D89 C2:D40 C42:D88">
-    <cfRule type="containsBlanks" dxfId="3" priority="9">
+  <conditionalFormatting sqref="C2:D40 C42:D68 C69:C88 D69:D91">
+    <cfRule type="containsBlanks" dxfId="15" priority="10">
       <formula>LEN(TRIM(C2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C89">
-    <cfRule type="containsBlanks" dxfId="2" priority="2">
+  <conditionalFormatting sqref="C41:D41">
+    <cfRule type="containsBlanks" dxfId="13" priority="2">
+      <formula>LEN(TRIM(C41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C89:C91">
+    <cfRule type="containsBlanks" dxfId="6" priority="1">
       <formula>LEN(TRIM(C89))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C41:D41">
-    <cfRule type="containsBlanks" dxfId="1" priority="1">
-      <formula>LEN(TRIM(C41))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D60">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D91">
       <formula1>$M$1:$M$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C70">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C91">
       <formula1>$L$1:$L$4</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A2:A91">
